--- a/sputnik/personal/ee/34ee.xlsx
+++ b/sputnik/personal/ee/34ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,20 +39,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>к доплате 22,51</t>
-  </si>
-  <si>
-    <t>Нет данных</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -150,7 +156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -171,6 +177,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -231,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,10 +270,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -474,411 +479,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43043</v>
+        <v>43366</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1374</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>1681</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>683</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>887</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="4">
-        <v>43295</v>
+        <v>43644</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1554</v>
+        <v>1922</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
-        <v>180</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>241</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="0">D4*E4</f>
-        <v>810</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1101.3700000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>1438.3600000000001</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1415.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>830</v>
+        <v>1028</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
-        <v>147</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>345.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>336.99</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="4">
-        <v>43337</v>
+        <v>43710</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>1616</v>
+        <v>2136</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D11" si="1">C6-C4</f>
-        <v>62</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.5</v>
+        <f>C6-C4</f>
+        <v>214</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*E6</f>
+        <v>960.86</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>1378.8200000000002</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1389.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>853</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
+        <f>C7-C5</f>
+        <v>172</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>54.050000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D7*E7</f>
+        <v>417.96000000000004</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="4">
-        <v>43366</v>
+        <v>43822</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>1681</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.5</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>292.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>365.81</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(F8,F9)</f>
+        <v>365.81</v>
+      </c>
+      <c r="H8" s="13">
+        <v>365.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>887</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>79.900000000000006</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43644</v>
-      </c>
-      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>1922</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-      <c r="E10" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>1101.3700000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1028</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>336.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43710</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
-        <v>2136</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C10</f>
-        <v>214</v>
-      </c>
-      <c r="E13" s="11">
-        <v>4.49</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>960.86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C11</f>
-        <v>172</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="E9" s="9">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>417.96000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43822</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <v>365.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(G4:G4+G9)</f>
+        <v>1438.3600000000001</v>
+      </c>
+      <c r="H10" s="13">
+        <f>SUM(H4:H4+H9)</f>
+        <v>1415.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="13">
+        <f>SUM(H10,-G10)</f>
+        <v>-22.510000000000218</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -888,12 +750,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,12 +764,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/34ee.xlsx
+++ b/sputnik/personal/ee/34ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slime\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\новое ee 03.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -136,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -419,7 +420,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,15 +505,15 @@
       <c r="E4" s="3">
         <v>4.57</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="8">
         <f>D4*E4</f>
         <v>1101.3700000000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <f>F4</f>
         <v>1101.3700000000001</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="8">
         <v>1415.85</v>
       </c>
     </row>
@@ -531,15 +532,15 @@
       <c r="E5" s="3">
         <v>2.39</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F9" si="1">D5*E5</f>
         <v>336.99</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G9" si="2">F5</f>
         <v>336.99</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -558,15 +559,15 @@
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>960.86</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>960.86</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="8">
         <v>1389.06</v>
       </c>
     </row>
@@ -585,15 +586,15 @@
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>417.96000000000004</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>417.96000000000004</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -611,14 +612,14 @@
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
         <v>365.81</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>365.81</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="8">
         <v>365.81</v>
       </c>
     </row>
@@ -636,21 +637,65 @@
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="A10" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2081.6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2081.6</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2081.6</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ref="F11" si="3">D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" ref="G10:G11" si="4">F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -666,5 +711,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sputnik/personal/ee/34ee.xlsx
+++ b/sputnik/personal/ee/34ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\новое ee 03.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,16 +692,60 @@
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" ref="G10:G11" si="4">F11</f>
+        <f t="shared" ref="G11" si="4">F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="A12" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <v>865.1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>865.1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>865.1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13" si="5">D13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" ref="G13" si="6">F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>

--- a/sputnik/personal/ee/34ee.xlsx
+++ b/sputnik/personal/ee/34ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 30.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -133,9 +133,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -419,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,15 +502,15 @@
       <c r="E4" s="3">
         <v>4.57</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>D4*E4</f>
         <v>1101.3700000000001</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>F4</f>
         <v>1101.3700000000001</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1415.85</v>
       </c>
     </row>
@@ -532,15 +529,15 @@
       <c r="E5" s="3">
         <v>2.39</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F9" si="1">D5*E5</f>
         <v>336.99</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" ref="G5:G9" si="2">F5</f>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G7" si="2">F5</f>
         <v>336.99</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -559,15 +556,15 @@
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>960.86</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>960.86</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>1389.06</v>
       </c>
     </row>
@@ -586,15 +583,15 @@
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>417.96000000000004</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>417.96000000000004</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -606,20 +603,16 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
-      <c r="F8" s="8">
-        <v>365.81</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>365.81</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <f>SUM(F8,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <v>365.81</v>
       </c>
     </row>
@@ -631,21 +624,16 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -655,21 +643,23 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>2483</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <f>SUM(C10,-C6)</f>
+        <v>347</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2081.6</v>
       </c>
-      <c r="G10" s="8">
-        <v>2081.6</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="7">
+        <f>SUM(F10,F11)</f>
+        <v>2970.98</v>
+      </c>
+      <c r="H10" s="7">
         <v>2081.6</v>
       </c>
     </row>
@@ -679,23 +669,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1566</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <f>SUM(C11,-C7)</f>
+        <v>366</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" ref="F11" si="3">D11*E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" ref="G11" si="4">F11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>889.38000000000011</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -705,21 +693,24 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>2612</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>129</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
-      <c r="F12" s="8">
-        <v>865.1</v>
-      </c>
-      <c r="G12" s="8">
-        <v>865.1</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="F12" s="7">
+        <f>D12*E12</f>
+        <v>607.59</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(F12,F13)</f>
+        <v>865.14</v>
+      </c>
+      <c r="H12" s="7">
         <v>865.1</v>
       </c>
     </row>
@@ -729,29 +720,72 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" ref="F13" si="5">D13*E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" ref="G13" si="6">F13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>257.54999999999995</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+      <c r="A14" s="4">
+        <v>44130</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2792</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="6">C14-C12</f>
+        <v>180</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="7">
+        <f>D14*E14</f>
+        <v>847.8</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SUM(F14,F15)</f>
+        <v>975.3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>975.3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1717</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15" si="7">D15*E15</f>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/34ee.xlsx
+++ b/sputnik/personal/ee/34ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +787,57 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44375</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2792</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="8">C16-C14</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="7">
+        <f>D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1360.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1717</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17" si="9">D17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sputnik/personal/ee/34ee.xlsx
+++ b/sputnik/personal/ee/34ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,12 +84,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -134,6 +140,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +795,7 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="8">
         <v>44375</v>
       </c>
       <c r="B16" s="5" t="s">

--- a/sputnik/personal/ee/34ee.xlsx
+++ b/sputnik/personal/ee/34ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H2:H17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,6 +845,57 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>44518</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2792</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="10">C18-C16</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="7">
+        <f>D18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F18,F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>989.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1717</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19" si="11">D19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
